--- a/500all/speech_level/speeches_CHRG-114hhrg21657.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21657.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Chairman Thompson. And thank you for holding today's hearing.    We appreciate the opportunity to allow us to further explore how our conservation efforts are working on-the-ground. As we move closer to the next farm bill in the upcoming session, these are the conversations that our Committee needs to continue to have.    Farm bill conservation programs incentivize farmers and ranchers to take real, meaningful, and voluntary conservation efforts on their land. Farmers and ranchers can choose from several different farm bill conservation programs, such as EQIP, the Environmental Quality Incentive Program, the Conservation Stewardship Program, and the Regional Conservation Partnership Program, to meet the conservation needs of their operations and the surrounding landscape.    It is clear to me that the success of voluntary conservation programs depends upon the partnerships that producers develop, not only with the NRCS but also with the conservation districts that help farmers and ranchers implement these practices on-the-ground.    I know that a lot of conservation work has gone toward cleaning up the Chesapeake Bay watershed. As an aside, I worked here on the Hill--I like to say 30 years ago; it is more like 40 years ago--and learned to wind surf in the Chesapeake Bay. And let me just say: thank you for your efforts to clean that up.    Because of these efforts and the partnership and participation of farmers, we have seen the health of the Bay improve dramatically. There remains a lot more to do in the Bay watershed, like many other areas across the country.    While many of us on this Committee are not from the Chesapeake Bay area, we are watching the Bay closely for strategies, best management practices, and lessons that we can apply to other important conservation areas, like in my region, the White Mountain National Forest and the Silvio Conte Wildlife Refuge.    Thank you to the witnesses for being here today. We appreciate your time.    And thank you, again, Mr. Chairman, for holding this hearing. I hope we will have more hearings to come to continue to examine our farm bill conservation programs, and we can all work together to make sure that these programs are easy to use for farmers and ranchers.    I yield back.    The Chairman. I thank the gentlelady, who obviously started working on the Hill when she was 5 years old.</t>
   </si>
   <si>
@@ -64,18 +61,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Weller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weller. Good morning, Mr. Chairman, Ms. Kuster, and Members of the Committee. Thank you very much for the invitation.    And, Mr. Chairman, I really credit you in holding this hearing and having an opportunity to talk about how the voluntary approach is delivering real results.    In my experience in the last several years, particularly in the last several months, it seems there is a growing theme, and it is one I am concerned about. And that is the voluntary approach to agriculture conservation is not working, and we are not getting the results that were perhaps expected or promised. And people are considering other options, whatever those options may be.    To have a forum, a venue to actually share what farmers and forest landowners are doing for the Chesapeake Bay but what, importantly, this Committee provides for through its investments through USDA generally and NRCS specifically for an array of conservation programs and the very significant assistance this Committee makes available, I have to say it is delivering huge results, not just in the Chesapeake Bay but nationally.    In previous testimony, I have been able to talk about some of the other outcomes, results that are happening on the landscape because of the voluntary approach, because of the collaborative approach farmers and ranchers are taking as part of their agricultural production. But, today, we are also, obviously, focused on the Bay.    And there have been some allegations that USDA hasn't done its part, that we made promises. I am here to say we made promises absolutely, but those promises were absolutely kept and in part because of the very significant programs and flexibilities and tools this Committee provides us, and in partnership with agriculture in the Chesapeake Bay.    Since 2009 through this fiscal year, we at NRCS and our conservation partners, state government and districts and NGO organizations across the Bay watershed, and across six states, have invested $890 million in financial and technical assistance to help producers put in place valuable conservation practices on their operations. That in turn has leveraged we estimate $400 million in conservation out of the pockets, the budgets of those family farming operations. Just through the title II programs alone, that is not counting the very significant investments from partners and state government and very significant investments from the NGO community. We are talking a very substantial investment in private lands, voluntary incentive-based conservation.    In general, I sleep well at night knowing that the voluntary approach works and is delivering results. But what is really compelling is that this voluntary approach is a win-win. It is a win in this case because we are starting to see a recovery of the Bay, but it is also a win because we have been able to maintain productive working agricultural lands here in the Chesapeake Bay region.    Regarding the size and scope, sir, that you outlined at the beginning, it is a very large watershed. In total, it is 44 million acres in size, of which about 7 million acres are cropland, another 3.6 million acres are pasture, and then forests are an additional 21 million acres. It is a very significant footprint that rural lands have. And that is a good thing, because we depend upon the water flowing off those rural lands to maintain the quality of waters that flow ultimately into the Bay.    In my view and in my estimation, if you care about the quality of the Bay water, you have to care about the integrity and the economic success of those working landscapes. It is not just something that NRCS believes in, it was actually in the Administration's Chesapeake Bay strategy that was released in 2010, that was put out as an interagency report, that laid out our strategy and our commitments, going forward, to implement President Obama's Executive Order to help address Chesapeake Bay challenges and also opportunities. In that report, it specifically calls out that healthy, productive agriculture is essential to maintaining the protection and vitality of the Chesapeake Bay waters.    We put in place, we invested $890 million. By many people, unfortunately, that is the only metric, how much money you spend. In my view, that is not a very good metric. I would rather actually get to what we are really doing with the money. With the money invested, we were able to put in place conservation systems on 3.6 million acres of working lands: croplands, pastures, and working timberland forests. That is a land area equivalent size almost three times the State of Delaware.    Within that very significant footprint, we then worked with our partners to try and identify, where are those most vulnerable soils? Where are those small watersheds where there is the greatest opportunity to make a difference? We put in place these overall good water-quality management practices on 1.6 million acres and highly targeted practices in these priority areas across the Bay states.    Just measuring by one metric alone, the protection for the streams and tributaries, just looking at those buffers and fences, basic practices to protect the integrity of those riparian areas, if you laid them end to end, it would be 3,500 miles of water quality protection practices along streams and tributaries were installed just since 2009. If you laid that out, that would stretch from Annapolis, Maryland, all the way to San Francisco, and from San Francisco all the way north to Seattle. The voluntary approach absolutely is installing real infrastructure that works for working agriculture but also, in this case, is helping to protect the waters of the Chesapeake Bay.    What is the result of all this? We went out and did a survey with producers on the Bay back in 2012. Already, that survey result is getting a little bit long in the tooth. But back in 2012, what we found is that producers on the Bay had in place soil conservation practices on 97 percent of all cropland acres on the Bay. Ninety-seven percent of the 7 million cropland acres on the Bay had soil conservation practices in place. At least 52 percent of those cultivated crop acres had cover crops as part of the rotation. Over 50 percent were no-till.    When we went out and we have done these surveys nationally, the Chesapeake Bay stands out as one of the leading areas in the entire country in terms of the level of stewardship and good quality management, soil conservation, and water-quality management. In many cases, they stand, producers here on the basin, stand head and shoulders above other areas in the country. There is no doubt in my mind that is a result of the voluntary approach producers are doing their part.    What do these good conservation practices result in? Back in 2012, again, we estimate that we reduced edge-of-field losses moving off cultivated farm fields by 62 percent in terms of sediment loss, 45 percent from the phosphorus loss, and 38 percent in terms of nitrogen loss. Just sediment loss alone, 62 percent reduction in edge-of-field loss, that is equivalent to 15 million tons of sediment that is no longer flowing into tributaries and ultimately deposited into the Chesapeake Bay watershed.    A headwind, though, that blowing against this that people don't often talk about is actually the urbanization of the watershed. Over the last 20 years, so from 2002 to 2012, in 20 years, 1.6 million acres of rural lands were developed, were converted. I don't want to pick on Delaware, but that is a land area 30 percent bigger than the entire State of Delaware was developed.    Why is that significant? Because when you have asphalt, roads, roofs, parking lots, an acre the asphalt has 16 times the volume of runoff than an acre of meadow. You are exacerbating the runoff, the energy that is flowing into tributaries, eroding stream banks, picking up sediment that is in the streambeds, ultimately flowing warmer water, faster water, more energetic water, carrying nutrients, sediments other contaminants off of those developed areas in the Chesapeake Bay watershed. That is a strong headwind. Notwithstanding the headwind, we have made great progress.    What are the actual results? We have estimated what some of these results are doing, and we went out and we started to a look at, what are other organizations reporting out in terms of actual outcomes? To be clear, I am not claiming credit that agriculture is responsible for all of these outcomes. But when you start to lay out all the positive trends and you connect the dots, big picture view, there is something happening, and it is very positive. In my view, agriculture is a huge contributor to this.    The Chesapeake Bay Program has estimated that, between 2009 and 2015, that there have been declines in loadings, in tributaries flowing into the Bay. In terms of sediment, a 640 million pound reduction in sediment, a 38 million pound reduction in phosphorus, a 24 million pound reduction in nitrogen. It turns out the agricultural sector, according to the Chesapeake Bay Program, is the leading sector reducing these loadings. In terms of the sediment, the agricultural sector is responsible for 78 percent of that reduction. For the phosphorus, the agriculture sector is responsible for 53 percent of that reduction. And for nitrogen, the agriculture sector is responsible for 23 percent of that reduction.    According to the USDA, the long-term trends in total nitrogen indicate improving conditions at a majority of the monitoring stations across rivers and tributaries in the Bay. Twice as many monitoring stations show improving trends for nitrogen as those monitoring stations showing degrading trends. And for phosphorus, over three times as many are monitoring stations that show positive improving trends as those show degrading. According to USGS, for the last 10 years, nitrogen levels improved at 54 percent of the monitoring stations and, for phosphorus, at 68 percent of the monitoring stations.    And USGS also estimated, in providing a forecast about potential summer dissolved oxygen levels, which is a measure of quality of Bay water, USGS estimated that the Susquehanna River delivered 66.2 million pounds of nitrogen from January to May 2016, which is 17 percent below average conditions.    According to the Maryland Department of Natural Resources in July of 2016, they issued a report that dissolved oxygen levels in Maryland's portion of the Bay were the second best since 1985. And University of Maryland's Center for Environmental Studies, they are the ones who produce the annual report. They issue the index report card. They give a score for the health of the Bay. In 2015, it earned one of the three highest scores since 1986. They got a letter grade of ``C,'' which I will say is not great, but it is one of the three highest since 1986, and the other two highest were in 2014 and 2013, showing a positive trend line.    You also look at the ecosystem itself. You have crabs, 19 percent increase in breeding adult females. Total blue crab population, it is the fourth highest population in 2 decades. Seagrass extent, we have had an over 50 percent increase in the overall expanse of seagrasses in the Bay, which is another indicator of overall aquatic health. That is important because those are the nurseries, the fisheries for crabs and for other aquatic species in the Bay. Anchovy, bass, shad have all shown over the last several years, if not a decade, positive increases, a surging rebounding population across the Bay.    Again, I am not claiming agriculture is solely responsible, but in my view, agriculture has absolutely not only made a promise in part because of what this Committee provides to our Department, has helped deliver on that promise through a voluntary collaborative approach, which is helping, in my view, ensure the long-term sustainability and productivity of agriculture in this region but also, in this case, the recovery and health of the Chesapeake Bay watershed. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weller. Thank you, sir.    The Chairman. Secretary Redding, you are now recognized for your statement.</t>
   </si>
   <si>
-    <t>Redding</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Redding. Mr. Chairman, Ranking Member, and all Members of the Committee, thank you, first, for the opportunity to be here and to talk about the progress we have made in Pennsylvania on Chesapeake Bay and water quality. And I appreciate Chief Weller's review of what has been invested and the outcomes of those investments but also to echo his points of appreciation to the Committee, who has both the primary concern of conservation first, but also the underpinning of that is an assumption of a productive and viable agricultural economy, right? And that is really key for us.    Mr. Chairman, you have heard me say many times that there are two coequal goals to this discussion about the Chesapeake Bay. One is water quality, and the other is viable farms. You will not achieve the first without the second. We have to ensure that the lands are productive agricultural lands, but as we know, the greatest return on investment of any funds, private or public, can and will be achieved by way of agricultural conservation practices versus others. I think that is an important point.    I will do a quick summary. You have my comments. I prefer to respond to questions, but just to outline a few key points here. We have been working on this issue of the Chesapeake Bay for the last 40 years from the TMDL establishment in 2010. You heard the investments we have made through the USDA and in Pennsylvania. They have been significant. I would say there has been a lot of progress. That is not always the story told. As you alluded to in your opening statement, there has been a tremendous amount of progress made. That progress has been a full partnership with the agricultural community. It has been a full partnership with our U.S. Department of Agriculture, NRCS, and the conservation districts, and many NGOs who have been at the table to help us do that. And we have made progress.    We have more to do. That is part of what you are here to talk about and want to share with you, but we have made progress. The Chesapeake Bay report itself speaks to the progress. The University of Maryland, Center for Environmental Science, the USGS water-quality monitoring shows there has been progress.    We have reduced phosphorus by 25 percent, nitrogen by six percent, sediment by 15 percent. And the numbers sometimes don't tell the full story of the load. But they are significant numbers and we are making progress. We also know that this is one of these issues where there will always be tension between the aspirational and the practical. It is just how dynamic it is. We will work at it. We will work at it hard. But any time you are talking about the landscape and the complexity of this landscape in this region, particularly, as the chief noted, it is going to take a lot of work. And that is not something we should apologize for or shy away from. We simply have to acknowledge it is going to take a lot of work to get the job done.    From Pennsylvania, just to put this in perspective, the Susquehanna River, largest contributor of water to the Chesapeake Bay, as you travel over the Bay Bridge, look down, 90 percent of that water in the upper bay is from the Susquehanna River. It flows right through the heartland of Pennsylvania, and 50 percent of the total water in the Bay is out of the Susquehanna River. We understand our contribution and the magnitude of the challenge as well.    We have continued to work with the Governor and our Administration across the agencies to really refocus our work on the Bay. As you know, we have titled this, The Reboot. The Reboot implies we had a plan in 2009, 2010. We worked at it through several Administrations. Governor Wolf returned 2 years ago and really put a focus on this. We knew, at that point, we were behind on the deliverables as laid out in 2010 TMDL. The difference with this effort now is it is very specific in terms of total load delivery and reduction expectations between 2009 and 2025. It then sets 2 year milestones, and those 2 year milestones become the midterm exams that we have to do. And we know that we are just not quite where we want to be, particularly on phosphorus and sediment. We are making progress. Anyhow, just to say that that is a key difference between what the discussions were and where we are today. Another reason for the Committee's interest in this is, how we are doing both with the agriculture aspects but certainly from the public policy standpoint?    Our Reboot had a number of points, six major components to it, looking at technical and financial assistance. It looked at the technology. A big component was better coordination and capacity of both the state and agencies looking at improved data collection.    There are many points: Two that I will highlight for you and we can talk more about. One is the role of the conservation districts in the effort of our Reboot. And this has surfaced a number of conversations in the state, and I know those conversations have extended to the USDA and NRCS as well. But there is no question that the progress that has been made and the progress that still has to be made can only be accomplished with the partnership of the conservation districts.    What we stepped into was an assumption that, given the historic relationship that the districts had with Pennsylvania by way of delegation agreement over the years, what we found was a willingness but some apprehension because of the comprehensiveness and the expectation of compliance checks, which is also part of our current efforts.    I will just say to that point that we have made tremendous progress in discussions with NRCS at the state level to make sure that the confidentiality of the information, as required by Congress in section 1619, is protected. We believe that we have found a way by way of a signed waiver and transparency with that transaction for the farm community to be protected and to live true to what Congress was intending with the confidentiality and privacy of that data. We have made progress on that.    But just to underscore, there is no way forward without the conservation districts. They have been great partners. We will continue to work with them as well.    The second point, just on a statement, Mr. Chairman, you made at the outset about the voluntary efforts and certainly giving credit to producers. One of the components of our strategy has been making sure that we account for the everyday good management practices that producers are employing. The Chesapeake Bay model has been noted many times. The majority of the BMPs that are in the model are those things that have been cost-shared, meaning that the public has made an investment in them. It does not include the non-cost-share practices or all of them. We have taken an effort with Pennsylvania State University to do a non-cost-share survey. It was well-responded to, and we are anxious to get that information back. Penn State is working through it as we speak, and we hope to have that information for the benefit of the next version of the model.    But even the early signs are really amazing in terms of the practices that we know are out there. The water quality monitoring has demonstrated they are, but they are not in the model. As you know, for a lot of producers, they want to have some assurance that ``if I have to do more, I want credit for what I have already done.'' And that really has been an important part of the conversation for us. Those things continue, but just to say that that has been part of our strategy for the very first time, to go out and do a comprehensive study with our land-grant university to ask the question, ``What have you done that has not been paid for by government and both in terms of practice and the details of those BMPs?'' We will have the benefit of that to inform our discussion and work here as we move forward.    In summary, just to end where I began, with a thank you. I appreciate your leadership on the Committee and back in Pennsylvania. I know you travel a lot of miles around the state and see what we see, and that is a changed landscape. When we speak of issues of BMPs and cover crops and all of the good work that has been done, you see that firsthand, as I do. I appreciate your leadership and the Committee in today's hearing. Thank you.</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
   </si>
   <si>
     <t>412625</t>
-  </si>
-  <si>
-    <t>Rick W. Allen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you for holding this hearing.    Chief Weller, on October 4, the Chesapeake Bay Executive Council, including the EPA Administrator, the Governors of Virginia, Maryland, New York, Delaware, West Virginia, Pennsylvania, and the Mayor of Washington, D.C., and the Chair of the Chesapeake Bay Commission will be meeting to identify restoration challenges, moving forward. If given a seat at the table, what story would you tell about the role of voluntary conservation efforts being implemented by producers?</t>
@@ -568,11 +556,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -594,11 +580,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -618,13 +602,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -644,13 +626,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -670,13 +650,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -696,13 +674,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -722,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -750,11 +724,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -776,11 +748,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -800,13 +770,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -828,11 +796,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -852,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -880,11 +844,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -904,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -932,11 +892,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -956,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -984,11 +940,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1008,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1034,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1060,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1086,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1112,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1138,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1164,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1190,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1216,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1242,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1268,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1294,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1320,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1346,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1372,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1398,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1424,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21657.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21657.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Chairman Thompson. And thank you for holding today's hearing.    We appreciate the opportunity to allow us to further explore how our conservation efforts are working on-the-ground. As we move closer to the next farm bill in the upcoming session, these are the conversations that our Committee needs to continue to have.    Farm bill conservation programs incentivize farmers and ranchers to take real, meaningful, and voluntary conservation efforts on their land. Farmers and ranchers can choose from several different farm bill conservation programs, such as EQIP, the Environmental Quality Incentive Program, the Conservation Stewardship Program, and the Regional Conservation Partnership Program, to meet the conservation needs of their operations and the surrounding landscape.    It is clear to me that the success of voluntary conservation programs depends upon the partnerships that producers develop, not only with the NRCS but also with the conservation districts that help farmers and ranchers implement these practices on-the-ground.    I know that a lot of conservation work has gone toward cleaning up the Chesapeake Bay watershed. As an aside, I worked here on the Hill--I like to say 30 years ago; it is more like 40 years ago--and learned to wind surf in the Chesapeake Bay. And let me just say: thank you for your efforts to clean that up.    Because of these efforts and the partnership and participation of farmers, we have seen the health of the Bay improve dramatically. There remains a lot more to do in the Bay watershed, like many other areas across the country.    While many of us on this Committee are not from the Chesapeake Bay area, we are watching the Bay closely for strategies, best management practices, and lessons that we can apply to other important conservation areas, like in my region, the White Mountain National Forest and the Silvio Conte Wildlife Refuge.    Thank you to the witnesses for being here today. We appreciate your time.    And thank you, again, Mr. Chairman, for holding this hearing. I hope we will have more hearings to come to continue to examine our farm bill conservation programs, and we can all work together to make sure that these programs are easy to use for farmers and ranchers.    I yield back.    The Chairman. I thank the gentlelady, who obviously started working on the Hill when she was 5 years old.</t>
   </si>
   <si>
@@ -61,12 +70,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Weller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weller. Good morning, Mr. Chairman, Ms. Kuster, and Members of the Committee. Thank you very much for the invitation.    And, Mr. Chairman, I really credit you in holding this hearing and having an opportunity to talk about how the voluntary approach is delivering real results.    In my experience in the last several years, particularly in the last several months, it seems there is a growing theme, and it is one I am concerned about. And that is the voluntary approach to agriculture conservation is not working, and we are not getting the results that were perhaps expected or promised. And people are considering other options, whatever those options may be.    To have a forum, a venue to actually share what farmers and forest landowners are doing for the Chesapeake Bay but what, importantly, this Committee provides for through its investments through USDA generally and NRCS specifically for an array of conservation programs and the very significant assistance this Committee makes available, I have to say it is delivering huge results, not just in the Chesapeake Bay but nationally.    In previous testimony, I have been able to talk about some of the other outcomes, results that are happening on the landscape because of the voluntary approach, because of the collaborative approach farmers and ranchers are taking as part of their agricultural production. But, today, we are also, obviously, focused on the Bay.    And there have been some allegations that USDA hasn't done its part, that we made promises. I am here to say we made promises absolutely, but those promises were absolutely kept and in part because of the very significant programs and flexibilities and tools this Committee provides us, and in partnership with agriculture in the Chesapeake Bay.    Since 2009 through this fiscal year, we at NRCS and our conservation partners, state government and districts and NGO organizations across the Bay watershed, and across six states, have invested $890 million in financial and technical assistance to help producers put in place valuable conservation practices on their operations. That in turn has leveraged we estimate $400 million in conservation out of the pockets, the budgets of those family farming operations. Just through the title II programs alone, that is not counting the very significant investments from partners and state government and very significant investments from the NGO community. We are talking a very substantial investment in private lands, voluntary incentive-based conservation.    In general, I sleep well at night knowing that the voluntary approach works and is delivering results. But what is really compelling is that this voluntary approach is a win-win. It is a win in this case because we are starting to see a recovery of the Bay, but it is also a win because we have been able to maintain productive working agricultural lands here in the Chesapeake Bay region.    Regarding the size and scope, sir, that you outlined at the beginning, it is a very large watershed. In total, it is 44 million acres in size, of which about 7 million acres are cropland, another 3.6 million acres are pasture, and then forests are an additional 21 million acres. It is a very significant footprint that rural lands have. And that is a good thing, because we depend upon the water flowing off those rural lands to maintain the quality of waters that flow ultimately into the Bay.    In my view and in my estimation, if you care about the quality of the Bay water, you have to care about the integrity and the economic success of those working landscapes. It is not just something that NRCS believes in, it was actually in the Administration's Chesapeake Bay strategy that was released in 2010, that was put out as an interagency report, that laid out our strategy and our commitments, going forward, to implement President Obama's Executive Order to help address Chesapeake Bay challenges and also opportunities. In that report, it specifically calls out that healthy, productive agriculture is essential to maintaining the protection and vitality of the Chesapeake Bay waters.    We put in place, we invested $890 million. By many people, unfortunately, that is the only metric, how much money you spend. In my view, that is not a very good metric. I would rather actually get to what we are really doing with the money. With the money invested, we were able to put in place conservation systems on 3.6 million acres of working lands: croplands, pastures, and working timberland forests. That is a land area equivalent size almost three times the State of Delaware.    Within that very significant footprint, we then worked with our partners to try and identify, where are those most vulnerable soils? Where are those small watersheds where there is the greatest opportunity to make a difference? We put in place these overall good water-quality management practices on 1.6 million acres and highly targeted practices in these priority areas across the Bay states.    Just measuring by one metric alone, the protection for the streams and tributaries, just looking at those buffers and fences, basic practices to protect the integrity of those riparian areas, if you laid them end to end, it would be 3,500 miles of water quality protection practices along streams and tributaries were installed just since 2009. If you laid that out, that would stretch from Annapolis, Maryland, all the way to San Francisco, and from San Francisco all the way north to Seattle. The voluntary approach absolutely is installing real infrastructure that works for working agriculture but also, in this case, is helping to protect the waters of the Chesapeake Bay.    What is the result of all this? We went out and did a survey with producers on the Bay back in 2012. Already, that survey result is getting a little bit long in the tooth. But back in 2012, what we found is that producers on the Bay had in place soil conservation practices on 97 percent of all cropland acres on the Bay. Ninety-seven percent of the 7 million cropland acres on the Bay had soil conservation practices in place. At least 52 percent of those cultivated crop acres had cover crops as part of the rotation. Over 50 percent were no-till.    When we went out and we have done these surveys nationally, the Chesapeake Bay stands out as one of the leading areas in the entire country in terms of the level of stewardship and good quality management, soil conservation, and water-quality management. In many cases, they stand, producers here on the basin, stand head and shoulders above other areas in the country. There is no doubt in my mind that is a result of the voluntary approach producers are doing their part.    What do these good conservation practices result in? Back in 2012, again, we estimate that we reduced edge-of-field losses moving off cultivated farm fields by 62 percent in terms of sediment loss, 45 percent from the phosphorus loss, and 38 percent in terms of nitrogen loss. Just sediment loss alone, 62 percent reduction in edge-of-field loss, that is equivalent to 15 million tons of sediment that is no longer flowing into tributaries and ultimately deposited into the Chesapeake Bay watershed.    A headwind, though, that blowing against this that people don't often talk about is actually the urbanization of the watershed. Over the last 20 years, so from 2002 to 2012, in 20 years, 1.6 million acres of rural lands were developed, were converted. I don't want to pick on Delaware, but that is a land area 30 percent bigger than the entire State of Delaware was developed.    Why is that significant? Because when you have asphalt, roads, roofs, parking lots, an acre the asphalt has 16 times the volume of runoff than an acre of meadow. You are exacerbating the runoff, the energy that is flowing into tributaries, eroding stream banks, picking up sediment that is in the streambeds, ultimately flowing warmer water, faster water, more energetic water, carrying nutrients, sediments other contaminants off of those developed areas in the Chesapeake Bay watershed. That is a strong headwind. Notwithstanding the headwind, we have made great progress.    What are the actual results? We have estimated what some of these results are doing, and we went out and we started to a look at, what are other organizations reporting out in terms of actual outcomes? To be clear, I am not claiming credit that agriculture is responsible for all of these outcomes. But when you start to lay out all the positive trends and you connect the dots, big picture view, there is something happening, and it is very positive. In my view, agriculture is a huge contributor to this.    The Chesapeake Bay Program has estimated that, between 2009 and 2015, that there have been declines in loadings, in tributaries flowing into the Bay. In terms of sediment, a 640 million pound reduction in sediment, a 38 million pound reduction in phosphorus, a 24 million pound reduction in nitrogen. It turns out the agricultural sector, according to the Chesapeake Bay Program, is the leading sector reducing these loadings. In terms of the sediment, the agricultural sector is responsible for 78 percent of that reduction. For the phosphorus, the agriculture sector is responsible for 53 percent of that reduction. And for nitrogen, the agriculture sector is responsible for 23 percent of that reduction.    According to the USDA, the long-term trends in total nitrogen indicate improving conditions at a majority of the monitoring stations across rivers and tributaries in the Bay. Twice as many monitoring stations show improving trends for nitrogen as those monitoring stations showing degrading trends. And for phosphorus, over three times as many are monitoring stations that show positive improving trends as those show degrading. According to USGS, for the last 10 years, nitrogen levels improved at 54 percent of the monitoring stations and, for phosphorus, at 68 percent of the monitoring stations.    And USGS also estimated, in providing a forecast about potential summer dissolved oxygen levels, which is a measure of quality of Bay water, USGS estimated that the Susquehanna River delivered 66.2 million pounds of nitrogen from January to May 2016, which is 17 percent below average conditions.    According to the Maryland Department of Natural Resources in July of 2016, they issued a report that dissolved oxygen levels in Maryland's portion of the Bay were the second best since 1985. And University of Maryland's Center for Environmental Studies, they are the ones who produce the annual report. They issue the index report card. They give a score for the health of the Bay. In 2015, it earned one of the three highest scores since 1986. They got a letter grade of ``C,'' which I will say is not great, but it is one of the three highest since 1986, and the other two highest were in 2014 and 2013, showing a positive trend line.    You also look at the ecosystem itself. You have crabs, 19 percent increase in breeding adult females. Total blue crab population, it is the fourth highest population in 2 decades. Seagrass extent, we have had an over 50 percent increase in the overall expanse of seagrasses in the Bay, which is another indicator of overall aquatic health. That is important because those are the nurseries, the fisheries for crabs and for other aquatic species in the Bay. Anchovy, bass, shad have all shown over the last several years, if not a decade, positive increases, a surging rebounding population across the Bay.    Again, I am not claiming agriculture is solely responsible, but in my view, agriculture has absolutely not only made a promise in part because of what this Committee provides to our Department, has helped deliver on that promise through a voluntary collaborative approach, which is helping, in my view, ensure the long-term sustainability and productivity of agriculture in this region but also, in this case, the recovery and health of the Chesapeake Bay watershed. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weller. Thank you, sir.    The Chairman. Secretary Redding, you are now recognized for your statement.</t>
   </si>
   <si>
+    <t>Redding</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Redding. Mr. Chairman, Ranking Member, and all Members of the Committee, thank you, first, for the opportunity to be here and to talk about the progress we have made in Pennsylvania on Chesapeake Bay and water quality. And I appreciate Chief Weller's review of what has been invested and the outcomes of those investments but also to echo his points of appreciation to the Committee, who has both the primary concern of conservation first, but also the underpinning of that is an assumption of a productive and viable agricultural economy, right? And that is really key for us.    Mr. Chairman, you have heard me say many times that there are two coequal goals to this discussion about the Chesapeake Bay. One is water quality, and the other is viable farms. You will not achieve the first without the second. We have to ensure that the lands are productive agricultural lands, but as we know, the greatest return on investment of any funds, private or public, can and will be achieved by way of agricultural conservation practices versus others. I think that is an important point.    I will do a quick summary. You have my comments. I prefer to respond to questions, but just to outline a few key points here. We have been working on this issue of the Chesapeake Bay for the last 40 years from the TMDL establishment in 2010. You heard the investments we have made through the USDA and in Pennsylvania. They have been significant. I would say there has been a lot of progress. That is not always the story told. As you alluded to in your opening statement, there has been a tremendous amount of progress made. That progress has been a full partnership with the agricultural community. It has been a full partnership with our U.S. Department of Agriculture, NRCS, and the conservation districts, and many NGOs who have been at the table to help us do that. And we have made progress.    We have more to do. That is part of what you are here to talk about and want to share with you, but we have made progress. The Chesapeake Bay report itself speaks to the progress. The University of Maryland, Center for Environmental Science, the USGS water-quality monitoring shows there has been progress.    We have reduced phosphorus by 25 percent, nitrogen by six percent, sediment by 15 percent. And the numbers sometimes don't tell the full story of the load. But they are significant numbers and we are making progress. We also know that this is one of these issues where there will always be tension between the aspirational and the practical. It is just how dynamic it is. We will work at it. We will work at it hard. But any time you are talking about the landscape and the complexity of this landscape in this region, particularly, as the chief noted, it is going to take a lot of work. And that is not something we should apologize for or shy away from. We simply have to acknowledge it is going to take a lot of work to get the job done.    From Pennsylvania, just to put this in perspective, the Susquehanna River, largest contributor of water to the Chesapeake Bay, as you travel over the Bay Bridge, look down, 90 percent of that water in the upper bay is from the Susquehanna River. It flows right through the heartland of Pennsylvania, and 50 percent of the total water in the Bay is out of the Susquehanna River. We understand our contribution and the magnitude of the challenge as well.    We have continued to work with the Governor and our Administration across the agencies to really refocus our work on the Bay. As you know, we have titled this, The Reboot. The Reboot implies we had a plan in 2009, 2010. We worked at it through several Administrations. Governor Wolf returned 2 years ago and really put a focus on this. We knew, at that point, we were behind on the deliverables as laid out in 2010 TMDL. The difference with this effort now is it is very specific in terms of total load delivery and reduction expectations between 2009 and 2025. It then sets 2 year milestones, and those 2 year milestones become the midterm exams that we have to do. And we know that we are just not quite where we want to be, particularly on phosphorus and sediment. We are making progress. Anyhow, just to say that that is a key difference between what the discussions were and where we are today. Another reason for the Committee's interest in this is, how we are doing both with the agriculture aspects but certainly from the public policy standpoint?    Our Reboot had a number of points, six major components to it, looking at technical and financial assistance. It looked at the technology. A big component was better coordination and capacity of both the state and agencies looking at improved data collection.    There are many points: Two that I will highlight for you and we can talk more about. One is the role of the conservation districts in the effort of our Reboot. And this has surfaced a number of conversations in the state, and I know those conversations have extended to the USDA and NRCS as well. But there is no question that the progress that has been made and the progress that still has to be made can only be accomplished with the partnership of the conservation districts.    What we stepped into was an assumption that, given the historic relationship that the districts had with Pennsylvania by way of delegation agreement over the years, what we found was a willingness but some apprehension because of the comprehensiveness and the expectation of compliance checks, which is also part of our current efforts.    I will just say to that point that we have made tremendous progress in discussions with NRCS at the state level to make sure that the confidentiality of the information, as required by Congress in section 1619, is protected. We believe that we have found a way by way of a signed waiver and transparency with that transaction for the farm community to be protected and to live true to what Congress was intending with the confidentiality and privacy of that data. We have made progress on that.    But just to underscore, there is no way forward without the conservation districts. They have been great partners. We will continue to work with them as well.    The second point, just on a statement, Mr. Chairman, you made at the outset about the voluntary efforts and certainly giving credit to producers. One of the components of our strategy has been making sure that we account for the everyday good management practices that producers are employing. The Chesapeake Bay model has been noted many times. The majority of the BMPs that are in the model are those things that have been cost-shared, meaning that the public has made an investment in them. It does not include the non-cost-share practices or all of them. We have taken an effort with Pennsylvania State University to do a non-cost-share survey. It was well-responded to, and we are anxious to get that information back. Penn State is working through it as we speak, and we hope to have that information for the benefit of the next version of the model.    But even the early signs are really amazing in terms of the practices that we know are out there. The water quality monitoring has demonstrated they are, but they are not in the model. As you know, for a lot of producers, they want to have some assurance that ``if I have to do more, I want credit for what I have already done.'' And that really has been an important part of the conversation for us. Those things continue, but just to say that that has been part of our strategy for the very first time, to go out and do a comprehensive study with our land-grant university to ask the question, ``What have you done that has not been paid for by government and both in terms of practice and the details of those BMPs?'' We will have the benefit of that to inform our discussion and work here as we move forward.    In summary, just to end where I began, with a thank you. I appreciate your leadership on the Committee and back in Pennsylvania. I know you travel a lot of miles around the state and see what we see, and that is a changed landscape. When we speak of issues of BMPs and cover crops and all of the good work that has been done, you see that firsthand, as I do. I appreciate your leadership and the Committee in today's hearing. Thank you.</t>
   </si>
   <si>
@@ -125,6 +140,12 @@
   </si>
   <si>
     <t>412625</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you for holding this hearing.    Chief Weller, on October 4, the Chesapeake Bay Executive Council, including the EPA Administrator, the Governors of Virginia, Maryland, New York, Delaware, West Virginia, Pennsylvania, and the Mayor of Washington, D.C., and the Chair of the Chesapeake Bay Commission will be meeting to identify restoration challenges, moving forward. If given a seat at the table, what story would you tell about the role of voluntary conservation efforts being implemented by producers?</t>
@@ -506,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +535,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,821 +557,954 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21657.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21657.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412557</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Kuster</t>
@@ -527,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,951 +566,1016 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
